--- a/doc/2023年下期/【画面設計】タレント参照ダイアログ（TalentRefDialog.vue).xlsx
+++ b/doc/2023年下期/【画面設計】タレント参照ダイアログ（TalentRefDialog.vue).xlsx
@@ -2917,7 +2917,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.0"/>
-    <col customWidth="1" min="2" max="2" width="24.71"/>
+    <col customWidth="1" min="2" max="2" width="29.29"/>
     <col customWidth="1" min="3" max="3" width="18.29"/>
     <col customWidth="1" min="4" max="4" width="60.57"/>
     <col customWidth="1" min="5" max="6" width="9.0"/>
@@ -4515,7 +4515,7 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" ht="17.25" customHeight="1">
+    <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="12" t="s">
         <v>40</v>
@@ -4579,7 +4579,7 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" ht="38.25" customHeight="1">
+    <row r="57" ht="21.75" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="44" t="s">
         <v>44</v>
@@ -4643,7 +4643,7 @@
       <c r="Y58" s="47"/>
       <c r="Z58" s="47"/>
     </row>
-    <row r="59" ht="38.25" customHeight="1">
+    <row r="59" ht="24.75" customHeight="1">
       <c r="A59" s="47"/>
       <c r="B59" s="50" t="s">
         <v>48</v>
@@ -4707,7 +4707,7 @@
       <c r="Y60" s="47"/>
       <c r="Z60" s="47"/>
     </row>
-    <row r="61" ht="38.25" customHeight="1">
+    <row r="61" ht="36.75" customHeight="1">
       <c r="A61" s="47"/>
       <c r="B61" s="54" t="s">
         <v>52</v>
@@ -4739,7 +4739,7 @@
       <c r="Y61" s="47"/>
       <c r="Z61" s="47"/>
     </row>
-    <row r="62" ht="20.25" customHeight="1">
+    <row r="62" ht="26.25" customHeight="1">
       <c r="A62" s="47"/>
       <c r="B62" s="56" t="s">
         <v>54</v>
